--- a/LeadFromApp.xlsx
+++ b/LeadFromApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE3DF6-903D-4F81-8A7E-0AAFC74910C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78843A83-9DE9-4B1E-997B-27556DECC3D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
